--- a/Documentation/Balance/ExpFromEnemies.xlsx
+++ b/Documentation/Balance/ExpFromEnemies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tank-Survivors\Documentation\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24177818-8D86-4AFF-84E3-C52D26621262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F389B9-DB09-496F-9AAB-1D21405E8099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17880" yWindow="3672" windowWidth="23040" windowHeight="13644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>8</v>
@@ -589,10 +589,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I3" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J3" s="9">
         <v>0</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="C4" s="4">
         <f>C3+C3*$E$3</f>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D4" s="4">
         <f>D3+C3</f>
@@ -620,12 +620,8 @@
       <c r="G4" s="9">
         <v>2</v>
       </c>
-      <c r="H4" s="9">
-        <v>40</v>
-      </c>
-      <c r="I4" s="9">
-        <v>20</v>
-      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="9">
         <v>0.2</v>
       </c>
@@ -639,25 +635,21 @@
       </c>
       <c r="C5" s="4">
         <f>C4+C4*$E$3</f>
-        <v>116.64</v>
+        <v>110.25</v>
       </c>
       <c r="D5" s="4">
         <f>D4+C4</f>
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="9">
-        <v>3</v>
-      </c>
-      <c r="H5" s="9">
-        <v>40</v>
-      </c>
-      <c r="I5" s="9">
-        <v>20</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="9">
         <v>1</v>
       </c>
@@ -671,11 +663,11 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" ref="C6:C43" si="0">C5+C5*$E$3</f>
-        <v>125.9712</v>
+        <v>115.7625</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ref="D6:D43" si="1">D5+C5</f>
-        <v>324.64</v>
+        <v>315.25</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="9" t="s">
@@ -695,11 +687,11 @@
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>136.04889599999998</v>
+        <v>121.550625</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="1"/>
-        <v>450.6112</v>
+        <v>431.01249999999999</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="9" t="s">
@@ -719,11 +711,11 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>146.93280768</v>
+        <v>127.62815624999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>586.66009599999995</v>
+        <v>552.56312500000001</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="9" t="s">
@@ -743,19 +735,19 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>158.6874322944</v>
+        <v>134.00956406249998</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>733.59290367999995</v>
+        <v>680.19128124999997</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G9">
-        <f>(60/G3)*((H3*K3)+(I3*J3))</f>
-        <v>300</v>
+        <f>(60/G3)*(($H$3*K3)+($I$3*J3))</f>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
@@ -764,19 +756,19 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>171.38242687795199</v>
+        <v>140.71004226562496</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>892.28033597439992</v>
+        <v>814.20084531249995</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G14" si="2">(60/G4)*((H4*K4)+(I4*J4))</f>
-        <v>1320</v>
+        <f>(60/G4)*(($H$3*K4)+($I$3*J4))</f>
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -785,19 +777,19 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>185.09302102818813</v>
+        <v>147.7455443789062</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>1063.662762852352</v>
+        <v>954.91088757812486</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
-        <v>560</v>
+        <f>(60/G5)*(($H$3*K5)+($I$3*J5))</f>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
@@ -806,18 +798,18 @@
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>199.90046271044318</v>
+        <v>155.13282159785152</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>1248.7557838805401</v>
+        <v>1102.6564319570311</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G12" si="2">(60/G6)*(($H$3*K6)+($I$3*J6))</f>
         <v>0</v>
       </c>
     </row>
@@ -827,18 +819,18 @@
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
-        <v>215.89249972727865</v>
+        <v>162.88946267774409</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>1448.6562465909833</v>
+        <v>1257.7892535548826</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G13" si="3">(60/G7)*((H7*K7)+(I7*J7))</f>
         <v>0</v>
       </c>
     </row>
@@ -848,18 +840,18 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>233.16389970546095</v>
+        <v>171.0339358116313</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="1"/>
-        <v>1664.5487463182619</v>
+        <v>1420.6787162326268</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G14" si="4">(60/G8)*(($H$3*K8)+($I$3*J8))</f>
         <v>0</v>
       </c>
     </row>
@@ -869,11 +861,11 @@
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
-        <v>251.81701168189784</v>
+        <v>179.58563260221285</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="1"/>
-        <v>1897.7126460237228</v>
+        <v>1591.712652044258</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="10" t="s">
@@ -881,7 +873,7 @@
       </c>
       <c r="G15">
         <f>SUM(G9:G14)</f>
-        <v>2180</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
@@ -890,11 +882,11 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
-        <v>271.96237261644967</v>
+        <v>188.5649142323235</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="1"/>
-        <v>2149.5296577056206</v>
+        <v>1771.2982846464708</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="10" t="s">
@@ -902,7 +894,7 @@
       </c>
       <c r="G16">
         <f>15*G15</f>
-        <v>32700</v>
+        <v>15300</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -911,11 +903,11 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
-        <v>293.71936242576567</v>
+        <v>197.99315994393967</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="1"/>
-        <v>2421.4920303220701</v>
+        <v>1959.8631988787943</v>
       </c>
       <c r="E17" s="5"/>
       <c r="G17" s="11"/>
@@ -926,11 +918,11 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>317.21691141982694</v>
+        <v>207.89281794113666</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="1"/>
-        <v>2715.2113927478358</v>
+        <v>2157.8563588227339</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -940,11 +932,11 @@
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
-        <v>342.59426433341309</v>
+        <v>218.28745883819349</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="1"/>
-        <v>3032.4283041676626</v>
+        <v>2365.7491767638708</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -954,11 +946,11 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
-        <v>370.00180548008615</v>
+        <v>229.20183178010316</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="1"/>
-        <v>3375.0225685010755</v>
+        <v>2584.0366356020641</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -968,11 +960,11 @@
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
-        <v>399.60194991849306</v>
+        <v>240.66192336910831</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="1"/>
-        <v>3745.0243739811617</v>
+        <v>2813.2384673821671</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -982,11 +974,11 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" si="0"/>
-        <v>431.57010591197252</v>
+        <v>252.69501953756372</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="1"/>
-        <v>4144.6263238996544</v>
+        <v>3053.9003907512752</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -996,11 +988,11 @@
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
-        <v>466.09571438493032</v>
+        <v>265.32977051444192</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="1"/>
-        <v>4576.1964298116272</v>
+        <v>3306.595410288839</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -1010,11 +1002,11 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
-        <v>503.38337153572473</v>
+        <v>278.596259040164</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="1"/>
-        <v>5042.2921441965573</v>
+        <v>3571.9251808032809</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -1024,11 +1016,11 @@
       </c>
       <c r="C25" s="4">
         <f t="shared" si="0"/>
-        <v>543.65404125858277</v>
+        <v>292.52607199217221</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="1"/>
-        <v>5545.6755157322823</v>
+        <v>3850.521439843445</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -1038,11 +1030,11 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
-        <v>587.14636455926939</v>
+        <v>307.15237559178081</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="1"/>
-        <v>6089.3295569908651</v>
+        <v>4143.0475118356171</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -1052,11 +1044,11 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
-        <v>634.11807372401097</v>
+        <v>322.50999437136983</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="1"/>
-        <v>6676.4759215501344</v>
+        <v>4450.1998874273977</v>
       </c>
       <c r="E27" s="5"/>
     </row>
@@ -1066,11 +1058,11 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
-        <v>684.84751962193184</v>
+        <v>338.63549408993833</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>7310.5939952741455</v>
+        <v>4772.7098817987671</v>
       </c>
       <c r="E28" s="5"/>
     </row>
@@ -1080,11 +1072,11 @@
       </c>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
-        <v>739.63532119168644</v>
+        <v>355.56726879443522</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="1"/>
-        <v>7995.441514896077</v>
+        <v>5111.3453758887053</v>
       </c>
       <c r="E29" s="5"/>
     </row>
@@ -1094,11 +1086,11 @@
       </c>
       <c r="C30" s="4">
         <f t="shared" si="0"/>
-        <v>798.80614688702133</v>
+        <v>373.34563223415699</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="1"/>
-        <v>8735.0768360877628</v>
+        <v>5466.9126446831406</v>
       </c>
       <c r="E30" s="5"/>
     </row>
@@ -1108,11 +1100,11 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
-        <v>862.71063863798304</v>
+        <v>392.01291384586483</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="1"/>
-        <v>9533.8829829747847</v>
+        <v>5840.2582769172977</v>
       </c>
       <c r="E31" s="5"/>
     </row>
@@ -1122,11 +1114,11 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" si="0"/>
-        <v>931.72748972902173</v>
+        <v>411.61355953815809</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="1"/>
-        <v>10396.593621612768</v>
+        <v>6232.2711907631628</v>
       </c>
       <c r="E32" s="5"/>
     </row>
@@ -1136,11 +1128,11 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" si="0"/>
-        <v>1006.2656889073435</v>
+        <v>432.19423751506599</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="1"/>
-        <v>11328.321111341789</v>
+        <v>6643.8847503013212</v>
       </c>
       <c r="E33" s="5"/>
     </row>
@@ -1150,11 +1142,11 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" si="0"/>
-        <v>1086.7669440199309</v>
+        <v>453.8039493908193</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="1"/>
-        <v>12334.586800249133</v>
+        <v>7076.0789878163869</v>
       </c>
       <c r="E34" s="5"/>
     </row>
@@ -1164,11 +1156,11 @@
       </c>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
-        <v>1173.7082995415253</v>
+        <v>476.49414686036027</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="1"/>
-        <v>13421.353744269065</v>
+        <v>7529.8829372072059</v>
       </c>
       <c r="E35" s="5"/>
     </row>
@@ -1178,11 +1170,11 @@
       </c>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
-        <v>1267.6049635048473</v>
+        <v>500.31885420337829</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="1"/>
-        <v>14595.062043810591</v>
+        <v>8006.3770840675661</v>
       </c>
       <c r="E36" s="5"/>
     </row>
@@ -1192,11 +1184,11 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
-        <v>1369.0133605852352</v>
+        <v>525.33479691354717</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" si="1"/>
-        <v>15862.667007315438</v>
+        <v>8506.6959382709447</v>
       </c>
       <c r="E37" s="5"/>
     </row>
@@ -1206,11 +1198,11 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
-        <v>1478.5344294320539</v>
+        <v>551.60153675922447</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="1"/>
-        <v>17231.680367900673</v>
+        <v>9032.0307351844913</v>
       </c>
       <c r="E38" s="5"/>
     </row>
@@ -1220,11 +1212,11 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" si="0"/>
-        <v>1596.8171837866182</v>
+        <v>579.18161359718567</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="1"/>
-        <v>18710.214797332726</v>
+        <v>9583.6322719437158</v>
       </c>
       <c r="E39" s="5"/>
     </row>
@@ -1234,11 +1226,11 @@
       </c>
       <c r="C40" s="4">
         <f t="shared" si="0"/>
-        <v>1724.5625584895477</v>
+        <v>608.14069427704499</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="1"/>
-        <v>20307.031981119344</v>
+        <v>10162.813885540902</v>
       </c>
       <c r="E40" s="5"/>
     </row>
@@ -1248,11 +1240,11 @@
       </c>
       <c r="C41" s="4">
         <f t="shared" si="0"/>
-        <v>1862.5275631687114</v>
+        <v>638.54772899089721</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="1"/>
-        <v>22031.59453960889</v>
+        <v>10770.954579817946</v>
       </c>
       <c r="E41" s="5"/>
     </row>
@@ -1262,11 +1254,11 @@
       </c>
       <c r="C42" s="4">
         <f t="shared" si="0"/>
-        <v>2011.5297682222083</v>
+        <v>670.4751154404421</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" si="1"/>
-        <v>23894.122102777601</v>
+        <v>11409.502308808844</v>
       </c>
       <c r="E42" s="8"/>
     </row>
@@ -1276,11 +1268,11 @@
       </c>
       <c r="C43" s="4">
         <f t="shared" si="0"/>
-        <v>2172.4521496799848</v>
+        <v>703.99887121246422</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" si="1"/>
-        <v>25905.651870999809</v>
+        <v>12079.977424249286</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Balance/ExpFromEnemies.xlsx
+++ b/Documentation/Balance/ExpFromEnemies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tank-Survivors\Documentation\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F389B9-DB09-496F-9AAB-1D21405E8099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4C1715-6C25-4C72-870C-8D1F66A08D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17880" yWindow="3672" windowWidth="23040" windowHeight="13644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,8 +893,8 @@
         <v>23</v>
       </c>
       <c r="G16">
-        <f>15*G15</f>
-        <v>15300</v>
+        <f>5*G15</f>
+        <v>5100</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">

--- a/Documentation/Balance/ExpFromEnemies.xlsx
+++ b/Documentation/Balance/ExpFromEnemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tank-Survivors\Documentation\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4C1715-6C25-4C72-870C-8D1F66A08D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E20ECC-8354-4C15-8A32-F7A0701784A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Множитель</t>
   </si>
@@ -104,12 +104,36 @@
   </si>
   <si>
     <t>Сколько опыта за 15 минут</t>
+  </si>
+  <si>
+    <t>Здоровье</t>
+  </si>
+  <si>
+    <t>Скорость</t>
+  </si>
+  <si>
+    <t>Урон</t>
+  </si>
+  <si>
+    <t>скорость атаки</t>
+  </si>
+  <si>
+    <t>минута\Статы:</t>
+  </si>
+  <si>
+    <t>Время до улучшения</t>
+  </si>
+  <si>
+    <t>На сколько процентов сильнее</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -236,6 +260,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,7 +545,7 @@
   <dimension ref="B1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +554,7 @@
     <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
@@ -897,7 +923,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>14</v>
       </c>
@@ -912,7 +938,7 @@
       <c r="E17" s="5"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>15</v>
       </c>
@@ -925,8 +951,18 @@
         <v>2157.8563588227339</v>
       </c>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <f>60/J18</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>16</v>
       </c>
@@ -939,8 +975,23 @@
         <v>2365.7491767638708</v>
       </c>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="J19" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>17</v>
       </c>
@@ -953,8 +1004,23 @@
         <v>2584.0366356020641</v>
       </c>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>18</v>
       </c>
@@ -967,8 +1033,20 @@
         <v>2813.2384673821671</v>
       </c>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>2.7</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>19</v>
       </c>
@@ -981,8 +1059,27 @@
         <v>3053.9003907512752</v>
       </c>
       <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f>G21+($G$21*$G$19)*$K$18</f>
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <f>H21+($H$21*$H$19)*$K$18</f>
+        <v>3.3480000000000003</v>
+      </c>
+      <c r="I22">
+        <f>I21+($I$21*$I$19)*$K$18</f>
+        <v>6.5</v>
+      </c>
+      <c r="J22">
+        <f>J21-($J$21*$J$19)*$K$18</f>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>20</v>
       </c>
@@ -995,8 +1092,27 @@
         <v>3306.595410288839</v>
       </c>
       <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f>G22+($G$21*$G$19)*$K$18</f>
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <f>H22+($H$21*$H$19)*$K$18</f>
+        <v>3.9960000000000004</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I35" si="5">I22+($I$21*$I$19)*$K$18</f>
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:J35" si="6">J22-($J$21*$J$19)*$K$18</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>21</v>
       </c>
@@ -1009,8 +1125,27 @@
         <v>3571.9251808032809</v>
       </c>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <f>G23+($G$21*$G$19)*$K$18</f>
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H34" si="7">H23+($H$21*$H$19)*$K$18</f>
+        <v>4.6440000000000001</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>9.5</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>0.90999999999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>22</v>
       </c>
@@ -1023,8 +1158,27 @@
         <v>3850.521439843445</v>
       </c>
       <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <f>G24+($G$21*$G$19)*$K$18</f>
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>5.2919999999999998</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>0.87999999999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>23</v>
       </c>
@@ -1037,8 +1191,27 @@
         <v>4143.0475118356171</v>
       </c>
       <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <f>G25+($G$21*$G$19)*$K$18</f>
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>5.9399999999999995</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>0.84999999999999987</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>24</v>
       </c>
@@ -1051,8 +1224,27 @@
         <v>4450.1998874273977</v>
       </c>
       <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <f>G26+($G$21*$G$19)*$K$18</f>
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>6.5879999999999992</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>0.81999999999999984</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>25</v>
       </c>
@@ -1065,8 +1257,27 @@
         <v>4772.7098817987671</v>
       </c>
       <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <f>G27+($G$21*$G$19)*$K$18</f>
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>7.2359999999999989</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>15.5</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>0.78999999999999981</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>26</v>
       </c>
@@ -1079,8 +1290,27 @@
         <v>5111.3453758887053</v>
       </c>
       <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <f>G28+($G$21*$G$19)*$K$18</f>
+        <v>29</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>7.8839999999999986</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>0.75999999999999979</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>27</v>
       </c>
@@ -1093,8 +1323,27 @@
         <v>5466.9126446831406</v>
       </c>
       <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <f>G29+($G$21*$G$19)*$K$18</f>
+        <v>32</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>8.5319999999999983</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>18.5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>0.72999999999999976</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>28</v>
       </c>
@@ -1107,8 +1356,27 @@
         <v>5840.2582769172977</v>
       </c>
       <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <f>G30+($G$21*$G$19)*$K$18</f>
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>9.1799999999999979</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>0.69999999999999973</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>29</v>
       </c>
@@ -1121,8 +1389,27 @@
         <v>6232.2711907631628</v>
       </c>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <f>G31+($G$21*$G$19)*$K$18</f>
+        <v>38</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>9.8279999999999976</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>21.5</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="6"/>
+        <v>0.66999999999999971</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>30</v>
       </c>
@@ -1135,8 +1422,27 @@
         <v>6643.8847503013212</v>
       </c>
       <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <f>G32+($G$21*$G$19)*$K$18</f>
+        <v>41</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="7"/>
+        <v>10.475999999999997</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>0.63999999999999968</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>31</v>
       </c>
@@ -1149,8 +1455,27 @@
         <v>7076.0789878163869</v>
       </c>
       <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <f>G33+($G$21*$G$19)*$K$18</f>
+        <v>44</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="7"/>
+        <v>11.123999999999997</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>24.5</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="6"/>
+        <v>0.60999999999999965</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>32</v>
       </c>
@@ -1163,8 +1488,27 @@
         <v>7529.8829372072059</v>
       </c>
       <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <f>G34+($G$21*$G$19)*$K$18</f>
+        <v>47</v>
+      </c>
+      <c r="H35">
+        <f>H34+($H$21*$H$19)*$K$18</f>
+        <v>11.771999999999997</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="6"/>
+        <v>0.57999999999999963</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>33</v>
       </c>
@@ -1178,7 +1522,7 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>34</v>
       </c>
@@ -1192,7 +1536,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>35</v>
       </c>
@@ -1206,7 +1550,7 @@
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>36</v>
       </c>
@@ -1220,7 +1564,7 @@
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>37</v>
       </c>
@@ -1234,7 +1578,7 @@
       </c>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>38</v>
       </c>
@@ -1248,7 +1592,7 @@
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>39</v>
       </c>
@@ -1262,7 +1606,7 @@
       </c>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7">
         <v>40</v>
       </c>
